--- a/BaoCao_SystemTest_Checkout.xlsx
+++ b/BaoCao_SystemTest_Checkout.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -38,18 +38,18 @@
     <t>ST_CHECKOUT_02</t>
   </si>
   <si>
-    <t>Bỏ trống thông tin giao hàng</t>
+    <t>Bỏ trống thông tin bắt buộc</t>
   </si>
   <si>
     <t>1. Vào Giỏ -&gt; Thanh toán
-2. Để trống Đ/c &amp; SĐT
+2. Để trống Address &amp; Phone
 3. Click Đặt hàng</t>
   </si>
   <si>
     <t>Input: Rỗng</t>
   </si>
   <si>
-    <t>Trình duyệt chặn submit hoặc hiện lỗi</t>
+    <t>Vẫn ở trang checkout do trình duyệt/HTML5 validation chặn submit</t>
   </si>
   <si>
     <t>URL: http://localhost:8080/ShopDuck/user/checkout</t>
@@ -61,21 +61,75 @@
     <t>ST_CHECKOUT_01</t>
   </si>
   <si>
-    <t>Đặt hàng thành công (Luồng chuẩn)</t>
-  </si>
-  <si>
-    <t>1. Click icon Giỏ hàng
-2. Click nút 'Thanh toán'
-3. Điền info &amp; Submit</t>
-  </si>
-  <si>
-    <t>Đ/c: 123 Hanoi, SĐT: 0987654321</t>
-  </si>
-  <si>
-    <t>Chuyển về trang chủ &amp; URL có '?success=true'</t>
-  </si>
-  <si>
-    <t>URL sau khi đặt: http://localhost:8080/ShopDuck/user/view-products?success=true</t>
+    <t>Đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>1. Vào Giỏ -&gt; Thanh toán
+2. Điền thông tin Address &amp; Phone hợp lệ
+3. Submit &amp; Check Success</t>
+  </si>
+  <si>
+    <t>Address: HCM, Phone: 0987654321</t>
+  </si>
+  <si>
+    <t>Chuyển về trang chủ (view-products) và hiển thị thông báo thành công</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8080/ShopDuck/user/view-products?success=true</t>
+  </si>
+  <si>
+    <t>ST_CHECKOUT_03</t>
+  </si>
+  <si>
+    <t>Số điện thoại sai định dạng</t>
+  </si>
+  <si>
+    <t>1. Nhập SĐT là chữ 'abc'
+2. Click Đặt hàng
+3. Check validation</t>
+  </si>
+  <si>
+    <t>Phone: abc_khong_phai_so</t>
+  </si>
+  <si>
+    <t>Không cho submit/Vẫn ở trang checkout</t>
+  </si>
+  <si>
+    <t>ST_CHECKOUT_04</t>
+  </si>
+  <si>
+    <t>Quay lại giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Vào trang Thanh toán
+2. Click link/nút Quay lại Giỏ hàng
+3. Check URL</t>
+  </si>
+  <si>
+    <t>Action: Back to Cart</t>
+  </si>
+  <si>
+    <t>Về trang view-cart.jsp</t>
+  </si>
+  <si>
+    <t>URL: http://localhost:8080/ShopDuck/user/order/view-cart.jsp</t>
+  </si>
+  <si>
+    <t>ST_CHECKOUT_05</t>
+  </si>
+  <si>
+    <t>Truy cập Checkout khi giỏ rỗng</t>
+  </si>
+  <si>
+    <t>1. Xóa hết hàng trong giỏ
+2. Truy cập thẳng URL /checkout
+3. Check chuyển hướng</t>
+  </si>
+  <si>
+    <t>Cart: Empty</t>
+  </si>
+  <si>
+    <t>Bị đá về trang sản phẩm hoặc giỏ hàng (Không được phép vào trang checkout)</t>
   </si>
 </sst>
 </file>
@@ -153,18 +207,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.1796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="41.984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="75.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.54296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="32.703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="70.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="65.515625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -237,6 +291,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
